--- a/sample_data/ipcc2021_emission_factors.xlsx
+++ b/sample_data/ipcc2021_emission_factors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bluel\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\8.Paper\0.00Handing\Algae_supply\Algae\LCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C3ACF2-67BF-4085-87C1-7B59DE25D22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BAB91B-BF23-4ABC-B643-052DC1E2E9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7185" yWindow="2805" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,6 @@
     <t>GHG</t>
   </si>
   <si>
-    <t>GWP_100</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>kg CO2e/m3</t>
+  </si>
+  <si>
+    <t>Emission Factor</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -450,108 +452,108 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>27.2</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>273</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>3.17</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>0.45</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>2.75</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>2.31</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
